--- a/Floret cum vana gloria; Florens vigor; Neuma quinti toni.xlsx
+++ b/Floret cum vana gloria; Florens vigor; Neuma quinti toni.xlsx
@@ -402,7 +402,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>luxuria</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -613,7 +613,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mundi</t>
+          <t>luxuria</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -623,7 +623,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>affectio</t>
+          <t>mundus</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -633,43 +633,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>affectio</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Total Sum</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
+      <c r="B15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>iuste</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -695,7 +695,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>obsequia</t>
+          <t>obsequium</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -705,7 +705,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>falsum</t>
+          <t>falsus</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
   </sheetData>
